--- a/data/trans_orig/P6515-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61F29382-14B9-4B42-B4A7-1D3918B5078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D58736E-8A44-440C-BC5D-AE361F321F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96F0A48C-C1CB-409A-BCB8-8881E95E0180}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{365FFCAE-F9B4-490C-BA86-4E2B417565BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>45,21%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>78,64%</t>
+    <t>77,87%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>59,56%</t>
   </si>
   <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>26,02%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
   </si>
   <si>
     <t>3,55%</t>
@@ -116,16 +116,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,74%</t>
+    <t>17,82%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>19,16%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
   </si>
   <si>
     <t>0%</t>
@@ -149,10 +149,10 @@
     <t>13,4%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -161,25 +161,25 @@
     <t>9,61%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>17,42%</t>
+    <t>17,88%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,7 +191,7 @@
     <t>66,06%</t>
   </si>
   <si>
-    <t>60,78%</t>
+    <t>60,71%</t>
   </si>
   <si>
     <t>71,29%</t>
@@ -200,97 +200,97 @@
     <t>89,89%</t>
   </si>
   <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>72,91%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>15,59%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>3,49%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -299,421 +299,427 @@
     <t>62,06%</t>
   </si>
   <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
   </si>
   <si>
     <t>92,28%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>71,87%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
+    <t>8,44%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1128,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F69257B-3F40-4D1D-87E8-1BB8054CCF80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F49BE5-CE73-49A7-9908-E65A05110338}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1593,10 +1599,10 @@
         <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1617,13 @@
         <v>21491</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1626,13 +1632,13 @@
         <v>2954</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -1641,13 +1647,13 @@
         <v>24445</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,10 +1958,10 @@
         <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,7 +2017,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2023,13 +2029,13 @@
         <v>250951</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -2038,13 +2044,13 @@
         <v>195412</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>425</v>
@@ -2053,13 +2059,13 @@
         <v>446363</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2080,13 @@
         <v>61619</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2089,13 +2095,13 @@
         <v>11943</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -2104,13 +2110,13 @@
         <v>73562</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,10 +2134,10 @@
         <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2140,13 +2146,13 @@
         <v>2889</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -2155,13 +2161,13 @@
         <v>38986</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2182,13 @@
         <v>57738</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2191,13 +2197,13 @@
         <v>1721</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -2206,13 +2212,13 @@
         <v>59458</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,7 +2274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2280,13 +2286,13 @@
         <v>385995</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>345</v>
@@ -2295,28 +2301,28 @@
         <v>364928</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>740</v>
       </c>
       <c r="N24" s="7">
-        <v>750923</v>
+        <v>750922</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2337,13 @@
         <v>59101</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2346,13 +2352,13 @@
         <v>4066</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -2361,13 +2367,13 @@
         <v>63167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2388,13 @@
         <v>36714</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -2397,13 +2403,13 @@
         <v>8225</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -2412,13 +2418,13 @@
         <v>44939</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2439,13 @@
         <v>69923</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2448,13 +2454,13 @@
         <v>10001</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>81</v>
@@ -2463,13 +2469,13 @@
         <v>79925</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2517,7 @@
         <v>936</v>
       </c>
       <c r="N28" s="7">
-        <v>938954</v>
+        <v>938953</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>48</v>
@@ -2537,13 +2543,13 @@
         <v>1224310</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>907</v>
@@ -2552,13 +2558,13 @@
         <v>948825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>2074</v>
@@ -2567,13 +2573,13 @@
         <v>2173135</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2594,13 @@
         <v>271153</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -2603,13 +2609,13 @@
         <v>29248</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>289</v>
@@ -2618,13 +2624,13 @@
         <v>300401</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2645,13 @@
         <v>145880</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -2654,13 +2660,13 @@
         <v>17987</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>160</v>
@@ -2672,10 +2678,10 @@
         <v>79</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2696,13 @@
         <v>257611</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -2705,13 +2711,13 @@
         <v>27356</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>274</v>
@@ -2720,13 +2726,13 @@
         <v>284967</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,7 +2774,7 @@
         <v>2797</v>
       </c>
       <c r="N33" s="7">
-        <v>2922369</v>
+        <v>2922370</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -2782,7 +2788,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6515-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D58736E-8A44-440C-BC5D-AE361F321F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9357EB81-D5E6-4ECD-92DE-78EE9F3D7BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{365FFCAE-F9B4-490C-BA86-4E2B417565BC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4814FDB-BC57-4370-BE71-555689F1944F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="225">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,16 +74,16 @@
     <t>45,21%</t>
   </si>
   <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>77,87%</t>
+    <t>77,99%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>59,56%</t>
   </si>
   <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>26,02%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
   </si>
   <si>
     <t>3,55%</t>
@@ -116,16 +116,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,82%</t>
+    <t>17,7%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>19,16%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
   </si>
   <si>
     <t>0%</t>
@@ -149,10 +149,10 @@
     <t>13,4%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -161,565 +161,553 @@
     <t>9,61%</t>
   </si>
   <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>6,31%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F49BE5-CE73-49A7-9908-E65A05110338}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433C59B0-B44C-426E-B5AF-23FEAB30472B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1599,10 +1587,10 @@
         <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,13 +1605,13 @@
         <v>21491</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1632,13 +1620,13 @@
         <v>2954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -1647,13 +1635,13 @@
         <v>24445</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1656,13 @@
         <v>35808</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1683,13 +1671,13 @@
         <v>7400</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -1698,13 +1686,13 @@
         <v>43208</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,7 +1748,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1772,13 +1760,13 @@
         <v>345454</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>229</v>
@@ -1787,13 +1775,13 @@
         <v>247069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>539</v>
@@ -1802,13 +1790,13 @@
         <v>592522</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1811,13 @@
         <v>81867</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -1838,13 +1826,13 @@
         <v>9371</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>87</v>
@@ -1853,13 +1841,13 @@
         <v>91239</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1862,13 @@
         <v>40671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1889,13 +1877,13 @@
         <v>3919</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -1904,13 +1892,13 @@
         <v>44590</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1913,13 @@
         <v>88674</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1940,13 +1928,13 @@
         <v>7367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -1955,13 +1943,13 @@
         <v>96041</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2005,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2017,13 @@
         <v>250951</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -2044,13 +2032,13 @@
         <v>195412</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>425</v>
@@ -2059,13 +2047,13 @@
         <v>446363</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2068,13 @@
         <v>61619</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2095,13 +2083,13 @@
         <v>11943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -2418,13 +2406,13 @@
         <v>44939</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2427,13 @@
         <v>69923</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2454,13 +2442,13 @@
         <v>10001</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>81</v>
@@ -2469,13 +2457,13 @@
         <v>79925</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2531,13 @@
         <v>1224310</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>907</v>
@@ -2558,13 +2546,13 @@
         <v>948825</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>2074</v>
@@ -2573,13 +2561,13 @@
         <v>2173135</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2582,13 @@
         <v>271153</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -2609,13 +2597,13 @@
         <v>29248</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>289</v>
@@ -2624,13 +2612,13 @@
         <v>300401</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2633,13 @@
         <v>145880</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -2660,13 +2648,13 @@
         <v>17987</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="M31" s="7">
         <v>160</v>
@@ -2675,13 +2663,13 @@
         <v>163867</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2684,13 @@
         <v>257611</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -2711,13 +2699,13 @@
         <v>27356</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>274</v>
@@ -2726,13 +2714,13 @@
         <v>284967</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,7 +2762,7 @@
         <v>2797</v>
       </c>
       <c r="N33" s="7">
-        <v>2922370</v>
+        <v>2922369</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -2788,7 +2776,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6515-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9357EB81-D5E6-4ECD-92DE-78EE9F3D7BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B492FE4C-86A6-4D5D-8CB7-C6F483611275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4814FDB-BC57-4370-BE71-555689F1944F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13A1C30D-C041-4A7A-87CD-EA8A79102093}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>45,21%</t>
   </si>
   <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>77,99%</t>
+    <t>78,64%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>59,56%</t>
   </si>
   <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>26,02%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
   </si>
   <si>
     <t>3,55%</t>
@@ -116,16 +116,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,7%</t>
+    <t>17,74%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>19,16%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>0%</t>
@@ -149,10 +149,10 @@
     <t>13,4%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -161,553 +161,559 @@
     <t>9,61%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>17,42%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1122,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433C59B0-B44C-426E-B5AF-23FEAB30472B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD4F228-2B3D-47C2-9011-C571232B51C1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1641,7 +1647,7 @@
         <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,13 +1662,13 @@
         <v>35808</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1671,13 +1677,13 @@
         <v>7400</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -1686,13 +1692,13 @@
         <v>43208</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,7 +1754,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1760,13 +1766,13 @@
         <v>345454</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>229</v>
@@ -1775,13 +1781,13 @@
         <v>247069</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>539</v>
@@ -1790,13 +1796,13 @@
         <v>592522</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,13 +1817,13 @@
         <v>81867</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -1826,13 +1832,13 @@
         <v>9371</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>87</v>
@@ -1841,13 +1847,13 @@
         <v>91239</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,13 +1868,13 @@
         <v>40671</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1877,13 +1883,13 @@
         <v>3919</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -1892,13 +1898,13 @@
         <v>44590</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1919,13 @@
         <v>88674</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1928,13 +1934,13 @@
         <v>7367</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -1943,10 +1949,10 @@
         <v>96041</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>121</v>
@@ -2089,7 +2095,7 @@
         <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -2098,13 +2104,13 @@
         <v>73562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,10 +2128,10 @@
         <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2134,13 +2140,13 @@
         <v>2889</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -2149,13 +2155,13 @@
         <v>38986</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2176,13 @@
         <v>57738</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2185,13 +2191,13 @@
         <v>1721</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -2200,13 +2206,13 @@
         <v>59458</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,7 +2268,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2274,13 +2280,13 @@
         <v>385995</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>345</v>
@@ -2289,28 +2295,28 @@
         <v>364928</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>740</v>
       </c>
       <c r="N24" s="7">
-        <v>750922</v>
+        <v>750923</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2331,13 @@
         <v>59101</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2340,13 +2346,13 @@
         <v>4066</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -2355,13 +2361,13 @@
         <v>63167</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2382,13 @@
         <v>36714</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -2391,13 +2397,13 @@
         <v>8225</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -2406,13 +2412,13 @@
         <v>44939</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2433,13 @@
         <v>69923</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -2442,13 +2448,13 @@
         <v>10001</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="M27" s="7">
         <v>81</v>
@@ -2505,7 +2511,7 @@
         <v>936</v>
       </c>
       <c r="N28" s="7">
-        <v>938953</v>
+        <v>938954</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>48</v>
@@ -2654,7 +2660,7 @@
         <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>160</v>
@@ -2663,13 +2669,13 @@
         <v>163867</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2690,13 @@
         <v>257611</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -2699,13 +2705,13 @@
         <v>27356</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>274</v>
@@ -2714,13 +2720,13 @@
         <v>284967</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,7 +2782,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6515-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B492FE4C-86A6-4D5D-8CB7-C6F483611275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC141694-497B-4341-B827-BC12EA7FD934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13A1C30D-C041-4A7A-87CD-EA8A79102093}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{50EECEC2-48DF-4C0F-BA2D-45CAE9155505}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -65,625 +65,526 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
   </si>
   <si>
     <t>6,52%</t>
@@ -1128,8 +1029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD4F228-2B3D-47C2-9011-C571232B51C1}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47ADD60C-0F5E-4ACA-8771-122F077814BF}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1246,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="D4" s="7">
-        <v>25738</v>
+        <v>241911</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1261,10 +1162,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="I4" s="7">
-        <v>22756</v>
+        <v>141417</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1276,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>48</v>
+        <v>370</v>
       </c>
       <c r="N4" s="7">
-        <v>48494</v>
+        <v>383328</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1297,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7">
-        <v>14813</v>
+        <v>68565</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1312,10 +1213,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>870</v>
+        <v>3868</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1327,10 +1228,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>15683</v>
+        <v>72433</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1348,10 +1249,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7">
-        <v>10907</v>
+        <v>32398</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1363,85 +1264,85 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2954</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="7">
         <v>34</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="7">
-        <v>10</v>
-      </c>
       <c r="N6" s="7">
-        <v>10907</v>
+        <v>35352</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>5468</v>
+        <v>41276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>867</v>
+        <v>8267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>6335</v>
+        <v>49543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,102 +1351,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>384150</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>156505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>540655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>209</v>
+        <v>310</v>
       </c>
       <c r="D9" s="7">
-        <v>216172</v>
+        <v>345454</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="I9" s="7">
-        <v>118660</v>
+        <v>247069</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>322</v>
+        <v>539</v>
       </c>
       <c r="N9" s="7">
-        <v>334832</v>
+        <v>592522</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,49 +1455,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D10" s="7">
-        <v>53752</v>
+        <v>81867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>2998</v>
+        <v>9371</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7">
-        <v>56750</v>
+        <v>91239</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,100 +1506,100 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>21491</v>
+        <v>40671</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2954</v>
+        <v>3919</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N11" s="7">
-        <v>24445</v>
+        <v>44590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7">
-        <v>35808</v>
+        <v>88674</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>7400</v>
+        <v>7367</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>43208</v>
+        <v>96041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,102 +1608,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>505</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>556666</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>132012</v>
+        <v>267726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>754</v>
       </c>
       <c r="N13" s="7">
-        <v>459235</v>
+        <v>824392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>345454</v>
+        <v>250951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="I14" s="7">
-        <v>247069</v>
+        <v>195412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>539</v>
+        <v>425</v>
       </c>
       <c r="N14" s="7">
-        <v>592522</v>
+        <v>446363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,49 +1712,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7">
-        <v>81867</v>
+        <v>61619</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>9371</v>
+        <v>11943</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N15" s="7">
-        <v>91239</v>
+        <v>73562</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,100 +1763,100 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7">
+        <v>36097</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2889</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" s="7">
         <v>37</v>
       </c>
-      <c r="D16" s="7">
-        <v>40671</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3919</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" s="7">
-        <v>41</v>
-      </c>
       <c r="N16" s="7">
-        <v>44590</v>
+        <v>38986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>88674</v>
+        <v>57738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>7367</v>
+        <v>1721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="N17" s="7">
-        <v>96041</v>
+        <v>59458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,102 +1865,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>505</v>
+        <v>375</v>
       </c>
       <c r="D18" s="7">
-        <v>556666</v>
+        <v>406404</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>267726</v>
+        <v>211965</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>754</v>
+        <v>587</v>
       </c>
       <c r="N18" s="7">
-        <v>824392</v>
+        <v>618369</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>230</v>
+        <v>395</v>
       </c>
       <c r="D19" s="7">
-        <v>250951</v>
+        <v>385995</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>195</v>
+        <v>345</v>
       </c>
       <c r="I19" s="7">
-        <v>195412</v>
+        <v>364928</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
-        <v>425</v>
+        <v>740</v>
       </c>
       <c r="N19" s="7">
-        <v>446363</v>
+        <v>750922</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,49 +1969,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7">
-        <v>61619</v>
+        <v>59101</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>11943</v>
+        <v>4066</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
       </c>
       <c r="N20" s="7">
-        <v>73562</v>
+        <v>63167</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,100 +2020,100 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D21" s="7">
-        <v>36097</v>
+        <v>36714</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I21" s="7">
-        <v>2889</v>
+        <v>8225</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N21" s="7">
-        <v>38986</v>
+        <v>44939</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D22" s="7">
-        <v>57738</v>
+        <v>69923</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>1721</v>
+        <v>10001</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="M22" s="7">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N22" s="7">
-        <v>59458</v>
+        <v>79925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,102 +2122,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>375</v>
+        <v>571</v>
       </c>
       <c r="D23" s="7">
-        <v>406404</v>
+        <v>551733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="I23" s="7">
-        <v>211965</v>
+        <v>387220</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>587</v>
+        <v>936</v>
       </c>
       <c r="N23" s="7">
-        <v>618369</v>
+        <v>938953</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>395</v>
+        <v>1167</v>
       </c>
       <c r="D24" s="7">
-        <v>385995</v>
+        <v>1224310</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
-        <v>345</v>
+        <v>907</v>
       </c>
       <c r="I24" s="7">
-        <v>364928</v>
+        <v>948825</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="M24" s="7">
-        <v>740</v>
+        <v>2074</v>
       </c>
       <c r="N24" s="7">
-        <v>750923</v>
+        <v>2173135</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,49 +2226,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="D25" s="7">
-        <v>59101</v>
+        <v>271153</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>4066</v>
+        <v>29248</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
-        <v>67</v>
+        <v>289</v>
       </c>
       <c r="N25" s="7">
-        <v>63167</v>
+        <v>300401</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,46 +2277,46 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="D26" s="7">
-        <v>36714</v>
+        <v>145880</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I26" s="7">
-        <v>8225</v>
+        <v>17987</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="N26" s="7">
-        <v>44939</v>
+        <v>163867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>183</v>
@@ -2424,13 +2325,13 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="D27" s="7">
-        <v>69923</v>
+        <v>257611</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>184</v>
@@ -2442,10 +2343,10 @@
         <v>186</v>
       </c>
       <c r="H27" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I27" s="7">
-        <v>10001</v>
+        <v>27356</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>187</v>
@@ -2454,22 +2355,22 @@
         <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="N27" s="7">
-        <v>79925</v>
+        <v>284967</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,319 +2379,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>571</v>
+        <v>1818</v>
       </c>
       <c r="D28" s="7">
-        <v>551733</v>
+        <v>1898953</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>365</v>
+        <v>979</v>
       </c>
       <c r="I28" s="7">
-        <v>387220</v>
+        <v>1023416</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>936</v>
+        <v>2797</v>
       </c>
       <c r="N28" s="7">
-        <v>938954</v>
+        <v>2922369</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1167</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1224310</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="A29" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H29" s="7">
-        <v>907</v>
-      </c>
-      <c r="I29" s="7">
-        <v>948825</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2074</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2173135</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>260</v>
-      </c>
-      <c r="D30" s="7">
-        <v>271153</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H30" s="7">
-        <v>29</v>
-      </c>
-      <c r="I30" s="7">
-        <v>29248</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M30" s="7">
-        <v>289</v>
-      </c>
-      <c r="N30" s="7">
-        <v>300401</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>142</v>
-      </c>
-      <c r="D31" s="7">
-        <v>145880</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="7">
-        <v>18</v>
-      </c>
-      <c r="I31" s="7">
-        <v>17987</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M31" s="7">
-        <v>160</v>
-      </c>
-      <c r="N31" s="7">
-        <v>163867</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="7">
-        <v>249</v>
-      </c>
-      <c r="D32" s="7">
-        <v>257611</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H32" s="7">
-        <v>25</v>
-      </c>
-      <c r="I32" s="7">
-        <v>27356</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M32" s="7">
-        <v>274</v>
-      </c>
-      <c r="N32" s="7">
-        <v>284967</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1818</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1898953</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="7">
-        <v>979</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1023416</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2797</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2922369</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>226</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
